--- a/00. WBS/멘토링 ChatGPT API를 활용한 기사 요약 시스템 프로젝트-SMRY-요구사항정의서-V1.0.xlsx
+++ b/00. WBS/멘토링 ChatGPT API를 활용한 기사 요약 시스템 프로젝트-SMRY-요구사항정의서-V1.0.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\정희수\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\정희수\OneDrive\바탕 화면\kpi\멘토링\24\doc\00. WBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8856" tabRatio="777" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" tabRatio="777" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="11" r:id="rId1"/>
@@ -456,9 +456,6 @@
     <t>ChatGPT api 설정</t>
   </si>
   <si>
-    <t>○ 프로젝트 내에 ChatGPT api 설정</t>
-  </si>
-  <si>
     <t>기능</t>
   </si>
   <si>
@@ -468,19 +465,7 @@
     <t>AI 기사 요약기능 개발</t>
   </si>
   <si>
-    <t xml:space="preserve">○ 크롤링을 통해 수집된 기사를 ChatGPT api를 사용하여 세줄로 요약하는 기능 구축 </t>
-  </si>
-  <si>
-    <t>○ api를 통하여 기사를 세줄 요약해주는 기능 구축
-  - 기능이 작동하는건 스케줄러 기능을 통한 데이터 크롤링 종료 이후에 시작할 수 있어야 함
-  - 수집된 기사의 데이터를 세줄로 요약 할 수 있어야 함</t>
-  </si>
-  <si>
     <t>전태현</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>○ 프로젝트내에 ChatGpt api 적용</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -499,38 +484,56 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>○ 스포츠 종목별(야구, 해외야구, 축구, 해외축구 등) 뉴스 카테고리 제공
-○ 하루를 기준으로 수집된 기사를 제공한다.
-○ 기사검색은 제목,내용으로 검색을 제공한다.
-○ 날짜별, 인기 순 등으로 기사를 필터링할 수 있는 기능을 제공한다.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>랭킹기사제공</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>○ 이용자가 많이 본 기사 순으로 실시간 랭킹기사제공</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>○ 테이블에 조회수 데이터를 활용하여 스포츠 종목별 인기 기사 랭킹 제공 (야구, 해외야구, 축구, 해외축구 등) 한다.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>이아인, 김유미</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>○ 키워드 검색을 통해 사용자가 원하는 기사를 쉽게 찾을 수 있는 기능 제공</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>REQ-SMRY-FRONT-F-001</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>REQ-SMRY-FRONT-F-002</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 프로젝트내에 ChatGpt api 적용</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. api를 통하여 기사를 세줄 요약해주는 기능 구축
+  - 기능이 작동하는건 스케줄러 기능을 통한 데이터 크롤링 종료 이후에 시작할 수 있어야 함
+  - 수집된 기사의 데이터를 세줄로 요약 할 수 있어야 함</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 스포츠 종목별(야구, 해외야구, 축구, 해외축구 등) 뉴스 카테고리 제공
+2. 하루를 기준으로 수집된 기사를 제공한다.
+3. 기사검색은 제목,내용으로 검색을 제공한다.
+4. 날짜별, 인기 순 등으로 기사를 필터링할 수 있는 기능을 제공한다.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 테이블에 조회수 데이터를 활용하여 스포츠 종목별 인기 기사 랭킹 제공 (야구, 해외야구, 축구, 해외축구 등) 한다.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 프로젝트 내에 ChatGPT api 설정</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 크롤링을 통해 수집된 기사를 ChatGPT api를 사용하여 세줄로 요약하는 기능 구축 </t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 키워드 검색을 통해 사용자가 원하는 기사를 쉽게 찾을 수 있는 기능 제공</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 이용자가 많이 본 기사 순으로 실시간 랭킹기사제공</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -3560,7 +3563,7 @@
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3633,12 +3636,6 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="29" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3702,6 +3699,18 @@
     <xf numFmtId="0" fontId="37" fillId="7" borderId="28" xfId="819" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="28" xfId="819" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3782,18 +3791,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="819" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3828,26 +3825,37 @@
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="30" xfId="819" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="distributed"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="distributed"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3855,6 +3863,7 @@
     <xf numFmtId="0" fontId="29" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7009,300 +7018,300 @@
       <c r="J2" s="17"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="52"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="57" t="s">
+      <c r="C5" s="58"/>
+      <c r="D5" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="55"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
     </row>
     <row r="7" spans="2:10" ht="14.4" customHeight="1">
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56" t="s">
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="59" t="s">
+      <c r="I7" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="60"/>
+      <c r="J7" s="62"/>
     </row>
     <row r="8" spans="2:10" ht="17.399999999999999">
-      <c r="B8" s="55"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="30" t="s">
+      <c r="B8" s="57"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="30" t="s">
+      <c r="J8" s="28" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="15.6" customHeight="1">
-      <c r="B9" s="61">
+      <c r="B9" s="63">
         <v>1</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="64" t="s">
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="73" t="s">
+      <c r="I9" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="J9" s="70" t="s">
+      <c r="J9" s="72" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="62"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="71"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="73"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="62"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="71"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="73"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="62"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="71"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="73"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="62"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="71"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="73"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="62"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="71"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="73"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="62"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="71"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="73"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="62"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="71"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="73"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="62"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="71"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="73"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="62"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="71"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="73"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="62"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="71"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="73"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="62"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="71"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="73"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="62"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="71"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="73"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="62"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="74"/>
-      <c r="J22" s="71"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="73"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="62"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="74"/>
-      <c r="J23" s="71"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="73"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="62"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="71"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="73"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="62"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="71"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="73"/>
     </row>
     <row r="26" spans="2:10" ht="15" thickBot="1">
-      <c r="B26" s="63"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="72"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -7336,8 +7345,8 @@
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7345,10 +7354,10 @@
     <col min="1" max="1" width="3.19921875" style="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.3984375" style="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.69921875" style="22" customWidth="1"/>
-    <col min="4" max="4" width="16.796875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="20.09765625" style="22" customWidth="1"/>
     <col min="5" max="5" width="22" style="19" customWidth="1"/>
     <col min="6" max="6" width="42" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.59765625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="6.59765625" style="48" customWidth="1"/>
     <col min="8" max="8" width="48.69921875" style="19" customWidth="1"/>
     <col min="9" max="9" width="16.69921875" style="19" hidden="1" customWidth="1"/>
     <col min="10" max="11" width="5.3984375" style="22" customWidth="1"/>
@@ -8119,15 +8128,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="21.15" customHeight="1" thickBot="1">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="23"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="47"/>
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
       <c r="J1" s="23"/>
@@ -8135,427 +8144,427 @@
       <c r="L1" s="23"/>
       <c r="M1" s="18"/>
       <c r="N1" s="23"/>
-      <c r="O1" s="99" t="s">
+      <c r="O1" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
     </row>
     <row r="2" spans="1:18" ht="15" thickTop="1">
       <c r="R2" s="20"/>
     </row>
     <row r="3" spans="1:18" s="21" customFormat="1">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="92" t="s">
+      <c r="D3" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="94" t="s">
+      <c r="E3" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="96" t="s">
+      <c r="F3" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="94" t="s">
+      <c r="G3" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="96" t="s">
+      <c r="H3" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="96" t="s">
+      <c r="I3" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="95" t="s">
+      <c r="J3" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="95" t="s">
+      <c r="K3" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="95" t="s">
+      <c r="L3" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="94" t="s">
+      <c r="M3" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="94"/>
-      <c r="O3" s="95" t="s">
+      <c r="N3" s="99"/>
+      <c r="O3" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="92" t="s">
+      <c r="P3" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="92" t="s">
+      <c r="Q3" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="96" t="s">
+      <c r="R3" s="90" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="21" customFormat="1">
-      <c r="A4" s="101"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="94"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="99"/>
       <c r="M4" s="24" t="s">
         <v>20</v>
       </c>
       <c r="N4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="94"/>
-      <c r="P4" s="100"/>
-      <c r="Q4" s="100"/>
-      <c r="R4" s="97"/>
-    </row>
-    <row r="5" spans="1:18" s="37" customFormat="1" ht="138.6" customHeight="1">
-      <c r="A5" s="81">
+      <c r="O4" s="99"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="91"/>
+    </row>
+    <row r="5" spans="1:18" s="35" customFormat="1" ht="138.6" customHeight="1">
+      <c r="A5" s="79">
         <v>1</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="79" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="84" t="s">
+      <c r="C5" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="I5" s="36"/>
-      <c r="J5" s="38" t="s">
+      <c r="I5" s="34"/>
+      <c r="J5" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="K5" s="38" t="s">
+      <c r="K5" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="L5" s="38" t="s">
+      <c r="L5" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="M5" s="39"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="38" t="s">
+      <c r="M5" s="37"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="P5" s="38" t="s">
+      <c r="P5" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-    </row>
-    <row r="6" spans="1:18" s="29" customFormat="1" ht="85.2" customHeight="1">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="38" t="s">
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+    </row>
+    <row r="6" spans="1:18" s="27" customFormat="1" ht="85.2" customHeight="1">
+      <c r="A6" s="80"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="42" t="s">
         <v>80</v>
       </c>
       <c r="F6" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="38" t="s">
         <v>70</v>
       </c>
       <c r="H6" s="25" t="s">
         <v>82</v>
       </c>
       <c r="I6" s="25"/>
-      <c r="J6" s="40" t="s">
+      <c r="J6" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="K6" s="40" t="s">
+      <c r="K6" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="L6" s="38" t="s">
+      <c r="L6" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="M6" s="42"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="38" t="s">
+      <c r="M6" s="40"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="P6" s="38" t="s">
+      <c r="P6" s="36" t="s">
         <v>76</v>
       </c>
       <c r="Q6" s="25"/>
       <c r="R6" s="25"/>
     </row>
-    <row r="7" spans="1:18" s="29" customFormat="1" ht="39.6">
-      <c r="A7" s="82"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="38" t="s">
+    <row r="7" spans="1:18" s="27" customFormat="1" ht="39.6">
+      <c r="A7" s="80"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="42" t="s">
         <v>87</v>
       </c>
       <c r="F7" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="38" t="s">
         <v>69</v>
       </c>
       <c r="H7" s="25" t="s">
         <v>74</v>
       </c>
       <c r="I7" s="25"/>
-      <c r="J7" s="26" t="s">
+      <c r="J7" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="K7" s="26" t="s">
+      <c r="K7" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="L7" s="38" t="s">
+      <c r="L7" s="36" t="s">
         <v>85</v>
       </c>
       <c r="M7" s="25"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="38" t="s">
+      <c r="N7" s="26"/>
+      <c r="O7" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="P7" s="38" t="s">
+      <c r="P7" s="36" t="s">
         <v>76</v>
       </c>
       <c r="Q7" s="25"/>
       <c r="R7" s="25"/>
     </row>
-    <row r="8" spans="1:18" s="29" customFormat="1" ht="30" customHeight="1">
-      <c r="A8" s="83"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="38" t="s">
+    <row r="8" spans="1:18" s="27" customFormat="1" ht="30" customHeight="1">
+      <c r="A8" s="81"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="42" t="s">
         <v>88</v>
       </c>
       <c r="F8" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="38" t="s">
         <v>70</v>
       </c>
       <c r="H8" s="25" t="s">
         <v>89</v>
       </c>
       <c r="I8" s="25"/>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="K8" s="26" t="s">
+      <c r="K8" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="L8" s="38" t="s">
+      <c r="L8" s="36" t="s">
         <v>85</v>
       </c>
       <c r="M8" s="25"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="38" t="s">
+      <c r="N8" s="26"/>
+      <c r="O8" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="P8" s="38" t="s">
+      <c r="P8" s="36" t="s">
         <v>76</v>
       </c>
       <c r="Q8" s="25"/>
       <c r="R8" s="25"/>
     </row>
     <row r="9" spans="1:18" ht="63.6" customHeight="1">
-      <c r="A9" s="90">
+      <c r="A9" s="88">
         <v>2</v>
       </c>
-      <c r="B9" s="89" t="s">
+      <c r="B9" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="87" t="s">
+      <c r="C9" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="48" t="s">
+      <c r="F9" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="G9" s="46" t="s">
+      <c r="H9" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" s="40"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+    </row>
+    <row r="10" spans="1:18" ht="63.6" customHeight="1">
+      <c r="A10" s="89"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="H9" s="48" t="s">
+      <c r="E10" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="H10" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="M10" s="40"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="P10" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+    </row>
+    <row r="11" spans="1:18" ht="68.400000000000006" customHeight="1">
+      <c r="A11" s="78">
+        <v>3</v>
+      </c>
+      <c r="B11" s="93" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="95" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="M11" s="40"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+    </row>
+    <row r="12" spans="1:18" ht="68.400000000000006" customHeight="1">
+      <c r="A12" s="78"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="J9" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="K9" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="L9" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="M9" s="42"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="P9" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
-    </row>
-    <row r="10" spans="1:18" ht="63.6" customHeight="1">
-      <c r="A10" s="91"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="F10" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="G10" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="H10" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="J10" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="K10" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="L10" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="M10" s="42"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="P10" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="42"/>
-    </row>
-    <row r="11" spans="1:18" ht="66">
-      <c r="A11" s="80">
-        <v>3</v>
-      </c>
-      <c r="B11" s="76" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="78" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="E11" s="44" t="s">
-        <v>104</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="J11" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="K11" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="L11" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="M11" s="42"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="P11" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="42"/>
-    </row>
-    <row r="12" spans="1:18" ht="26.4">
-      <c r="A12" s="80"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="27" t="s">
+      <c r="F12" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="E12" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>95</v>
+      <c r="G12" s="38" t="s">
+        <v>94</v>
       </c>
       <c r="H12" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="J12" s="38" t="s">
+      <c r="J12" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="K12" s="40" t="s">
+      <c r="K12" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="L12" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="M12" s="42"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="38" t="s">
+      <c r="L12" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="M12" s="40"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="P12" s="38" t="s">
+      <c r="P12" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="42"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:R8"/>
@@ -8644,196 +8653,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="27.6">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
     </row>
     <row r="3" spans="1:3" ht="15.6">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="30" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.6">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="31" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="62.4">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="31" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.6">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="31" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.6">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="31" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="62.4">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="31" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="46.8">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="31" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.6">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="31" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.6">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="31" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.6">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="31" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="31.2">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="31" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="62.4">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="31" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.6">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="31" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.6">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="31" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.6">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="31" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="31.2">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="31" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.6">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="31" t="s">
         <v>30</v>
       </c>
     </row>
